--- a/LearningFactorTest.xlsx
+++ b/LearningFactorTest.xlsx
@@ -1,48 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="27735" windowHeight="14175"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P1_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P1_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P2_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P2_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,176 +74,464 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
-    <col min="4" max="4" width="6.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E2">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>628.39999999999998</v>
+        <v>643.20000000000005</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
         <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <v>630.95000000000005</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>628.35000000000002</v>
+        <v>649.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>627.79999999999995</v>
+        <v>640.79999999999995</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LearningFactorTest.xlsx
+++ b/LearningFactorTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -53,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -75,11 +75,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -95,6 +99,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,22 +124,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -152,7 +160,7 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="F2">
-        <v>628.39999999999998</v>
+        <v>628.25</v>
       </c>
     </row>
     <row r="3">
@@ -172,7 +180,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="F3">
-        <v>630.95000000000005</v>
+        <v>628.45000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -192,7 +200,7 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="F4">
-        <v>628.35000000000002</v>
+        <v>634.39999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -212,7 +220,7 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="F5">
-        <v>627.79999999999995</v>
+        <v>630.79999999999995</v>
       </c>
     </row>
   </sheetData>
